--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox\Briefbombe\5.Semester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF5A0D0-24A1-4906-B0DE-FD7B54830280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54178B-CE29-477A-9F86-B7C16B93ADDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Startzeit</t>
   </si>
@@ -51,13 +51,25 @@
     <t>Strömi Übung Teil 1 A13</t>
   </si>
   <si>
-    <t>Beispiel</t>
-  </si>
-  <si>
     <t>Digitales Setup vorbereiten</t>
   </si>
   <si>
     <t>Strömi Übung Teil 1 A13; Zeichnungsprogramm finden</t>
+  </si>
+  <si>
+    <t>Vorlage Übung 1</t>
+  </si>
+  <si>
+    <t>Übung 1b</t>
+  </si>
+  <si>
+    <t>Übung 1c, 1d</t>
+  </si>
+  <si>
+    <t>Übung 2a</t>
+  </si>
+  <si>
+    <t>Übung 108</t>
   </si>
 </sst>
 </file>
@@ -431,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDCDC67-96B1-42F2-B0F8-9165D0A5E1EB}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +480,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44113</v>
+        <v>44114</v>
       </c>
       <c r="B2" s="2">
         <v>0.38541666666666669</v>
@@ -481,13 +493,61 @@
         <v>1.5833333333333339</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="D3" s="3">
         <f>HOUR(Roman!C3)+MINUTE(Roman!C3)/60-HOUR(Roman!B3)-MINUTE(Roman!B3)/60+D2</f>
         <v>2.5833333333333339</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="D4" s="3">
+        <f>HOUR(Roman!C4)+MINUTE(Roman!C4)/60-HOUR(Roman!B4)-MINUTE(Roman!B4)/60+D3</f>
+        <v>3.1666666666666661</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D5" s="3">
+        <f>HOUR(Roman!C5)+MINUTE(Roman!C5)/60-HOUR(Roman!B5)-MINUTE(Roman!B5)/60+D4</f>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -497,10 +557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +625,7 @@
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,7 +643,25 @@
         <v>3.1666666666666661</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D5" s="3">
+        <f>HOUR(C5)+MINUTE(C5)/60-HOUR(B5)-MINUTE(B5)/60+D4</f>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C54178B-CE29-477A-9F86-B7C16B93ADDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD61B6FC-B9CA-490E-9581-4C5ECF560743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Startzeit</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Übung 108</t>
+  </si>
+  <si>
+    <t>Corona Lüftung Aufgaben</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +667,24 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D6" s="3">
+        <f>HOUR(C6)+MINUTE(C6)/60-HOUR(B6)-MINUTE(B6)/60+D5</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD61B6FC-B9CA-490E-9581-4C5ECF560743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF623E-AC0E-4B1B-846D-3F2C402574DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Willy" sheetId="3" r:id="rId1"/>
-    <sheet name="Roman" sheetId="1" r:id="rId2"/>
+    <sheet name="Roman (November)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Startzeit</t>
   </si>
@@ -69,19 +69,34 @@
     <t>Übung 2a</t>
   </si>
   <si>
-    <t>Übung 108</t>
-  </si>
-  <si>
     <t>Corona Lüftung Aufgaben</t>
+  </si>
+  <si>
+    <t>Brainstorming und erste Stichpunkte für grundlegendes Laborwissen</t>
+  </si>
+  <si>
+    <t>Portierung der Corona Lüftungsaufgaben in LaTex Dokument 
+zur besseren Strukturierung und Übersicht</t>
+  </si>
+  <si>
+    <t>Strömi Übung 108</t>
+  </si>
+  <si>
+    <t>Restzeit November</t>
+  </si>
+  <si>
+    <t>Restzeit Gesamt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="#.##\ &quot;h&quot;"/>
+    <numFmt numFmtId="169" formatCode="#\ &quot;h&quot;"/>
+    <numFmt numFmtId="170" formatCode="#.0\ &quot;h&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,12 +141,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -510,7 +553,7 @@
         <v>0.47222222222222227</v>
       </c>
       <c r="D3" s="3">
-        <f>HOUR(Roman!C3)+MINUTE(Roman!C3)/60-HOUR(Roman!B3)-MINUTE(Roman!B3)/60+D2</f>
+        <f>HOUR('Roman (November)'!C3)+MINUTE('Roman (November)'!C3)/60-HOUR('Roman (November)'!B3)-MINUTE('Roman (November)'!B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" t="s">
@@ -528,7 +571,7 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="D4" s="3">
-        <f>HOUR(Roman!C4)+MINUTE(Roman!C4)/60-HOUR(Roman!B4)-MINUTE(Roman!B4)/60+D3</f>
+        <f>HOUR('Roman (November)'!C4)+MINUTE('Roman (November)'!C4)/60-HOUR('Roman (November)'!B4)-MINUTE('Roman (November)'!B4)/60+D3</f>
         <v>3.1666666666666661</v>
       </c>
       <c r="E4" t="s">
@@ -546,7 +589,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="D5" s="3">
-        <f>HOUR(Roman!C5)+MINUTE(Roman!C5)/60-HOUR(Roman!B5)-MINUTE(Roman!B5)/60+D4</f>
+        <f>HOUR('Roman (November)'!C5)+MINUTE('Roman (November)'!C5)/60-HOUR('Roman (November)'!B5)-MINUTE('Roman (November)'!B5)/60+D4</f>
         <v>4.6666666666666661</v>
       </c>
       <c r="E5" t="s">
@@ -560,10 +603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,13 +615,15 @@
     <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" hidden="1"/>
+    <col min="5" max="5" width="62.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -594,96 +639,206 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>44113</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="13">
         <f>HOUR(C2)+MINUTE(C2)/60-HOUR(B2)-MINUTE(B2)/60</f>
         <v>1.5833333333333339</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F2" s="12">
+        <f>30-D2</f>
+        <v>28.416666666666664</v>
+      </c>
+      <c r="G2" s="12">
+        <f>120-D2</f>
+        <v>118.41666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>44113</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D3" s="3">
-        <f>HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D8" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F8" si="1">30-D3</f>
+        <v>27.416666666666664</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G8" si="2">120-D3</f>
+        <v>117.41666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>44116</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D4" s="3">
-        <f>HOUR(C4)+MINUTE(C4)/60-HOUR(B4)-MINUTE(B4)/60+D3</f>
+      <c r="D4" s="13">
+        <f t="shared" si="0"/>
         <v>3.1666666666666661</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
+        <v>26.833333333333336</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="2"/>
+        <v>116.83333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>44124</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D5" s="3">
-        <f>HOUR(C5)+MINUTE(C5)/60-HOUR(B5)-MINUTE(B5)/60+D4</f>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
         <v>4.6666666666666661</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>25.333333333333336</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="2"/>
+        <v>115.33333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>44130</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44130</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="D6" s="3">
-        <f>HOUR(C6)+MINUTE(C6)/60-HOUR(B6)-MINUTE(B6)/60+D5</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>19.333333333333336</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="2"/>
+        <v>109.33333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44137</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>13.166666666666666</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>16.833333333333336</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="2"/>
+        <v>106.83333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44144</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="2"/>
+        <v>105.33333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF623E-AC0E-4B1B-846D-3F2C402574DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545010EE-EEF8-4085-8E16-7E033A4DB4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Startzeit</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>Restzeit Gesamt</t>
+  </si>
+  <si>
+    <t>Erstellen von Illustrationen für Spalt- und Querlüftung
+Überarbeitung der Erklärung des Kompartiementenmodells</t>
   </si>
 </sst>
 </file>
@@ -95,8 +99,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="#.##\ &quot;h&quot;"/>
-    <numFmt numFmtId="169" formatCode="#\ &quot;h&quot;"/>
-    <numFmt numFmtId="170" formatCode="#.0\ &quot;h&quot;"/>
+    <numFmt numFmtId="166" formatCode="#\ &quot;h&quot;"/>
+    <numFmt numFmtId="167" formatCode="#.0\ &quot;h&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -156,9 +160,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -166,13 +167,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,18 +622,18 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" hidden="1"/>
@@ -627,10 +643,10 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -650,24 +666,24 @@
       <c r="A2" s="7">
         <v>44113</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <f>HOUR(C2)+MINUTE(C2)/60-HOUR(B2)-MINUTE(B2)/60</f>
         <v>1.5833333333333339</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="14">
         <f>30-D2</f>
         <v>28.416666666666664</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <f>120-D2</f>
         <v>118.41666666666667</v>
       </c>
@@ -676,25 +692,25 @@
       <c r="A3" s="7">
         <v>44113</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D3" s="13">
-        <f t="shared" ref="D3:D8" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D9" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F8" si="1">30-D3</f>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F9" si="1">30-D3</f>
         <v>27.416666666666664</v>
       </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G8" si="2">120-D3</f>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G9" si="2">120-D3</f>
         <v>117.41666666666667</v>
       </c>
     </row>
@@ -702,24 +718,24 @@
       <c r="A4" s="7">
         <v>44116</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <f t="shared" si="0"/>
         <v>3.1666666666666661</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <f t="shared" si="1"/>
         <v>26.833333333333336</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="14">
         <f t="shared" si="2"/>
         <v>116.83333333333333</v>
       </c>
@@ -728,24 +744,24 @@
       <c r="A5" s="7">
         <v>44124</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>4.6666666666666661</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <f t="shared" si="1"/>
         <v>25.333333333333336</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="14">
         <f t="shared" si="2"/>
         <v>115.33333333333333</v>
       </c>
@@ -754,91 +770,114 @@
       <c r="A6" s="7">
         <v>44130</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <f t="shared" si="1"/>
         <v>19.333333333333336</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <f t="shared" si="2"/>
         <v>109.33333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>44137</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>0.75</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>13.166666666666666</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>16.833333333333336</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="14">
         <f t="shared" si="2"/>
         <v>106.83333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>44144</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>14.666666666666666</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>15.333333333333334</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <f t="shared" si="2"/>
         <v>105.33333333333333</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>16.416666666666664</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>13.583333333333336</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>103.58333333333334</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545010EE-EEF8-4085-8E16-7E033A4DB4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF092EF-2258-4428-AB7E-14D5E3E33ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Willy" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Startzeit</t>
   </si>
@@ -89,7 +89,10 @@
   </si>
   <si>
     <t>Erstellen von Illustrationen für Spalt- und Querlüftung
-Überarbeitung der Erklärung des Kompartiementenmodells</t>
+Beginn der Überarbeitung der Erklärung des Kompartiementenmodells</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Überarbeitung und Erweiterung der Erklärung des Kompartiementenmodells</t>
   </si>
 </sst>
 </file>
@@ -154,9 +157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -166,16 +166,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -190,6 +186,15 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,19 +626,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" hidden="1"/>
@@ -643,16 +648,16 @@
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -663,221 +668,247 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>44113</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <f>HOUR(C2)+MINUTE(C2)/60-HOUR(B2)-MINUTE(B2)/60</f>
         <v>1.5833333333333339</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <f>30-D2</f>
         <v>28.416666666666664</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <f>120-D2</f>
         <v>118.41666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>44113</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D3" s="11">
-        <f t="shared" ref="D3:D9" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D10" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14">
-        <f t="shared" ref="F3:F9" si="1">30-D3</f>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F10" si="1">30-D3</f>
         <v>27.416666666666664</v>
       </c>
-      <c r="G3" s="14">
-        <f t="shared" ref="G3:G9" si="2">120-D3</f>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G10" si="2">120-D3</f>
         <v>117.41666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>44116</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>3.1666666666666661</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <f t="shared" si="1"/>
         <v>26.833333333333336</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <f t="shared" si="2"/>
         <v>116.83333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>44124</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>4.6666666666666661</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <f t="shared" si="1"/>
         <v>25.333333333333336</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <f t="shared" si="2"/>
         <v>115.33333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>44130</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <f t="shared" si="1"/>
         <v>19.333333333333336</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <f t="shared" si="2"/>
         <v>109.33333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>44137</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>0.75</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>13.166666666666666</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <f t="shared" si="1"/>
         <v>16.833333333333336</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <f t="shared" si="2"/>
         <v>106.83333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>44144</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>14.666666666666666</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <f t="shared" si="1"/>
         <v>15.333333333333334</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <f t="shared" si="2"/>
         <v>105.33333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="A9" s="7">
+        <v>44145</v>
+      </c>
+      <c r="B9" s="8">
         <v>0.375</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>16.416666666666664</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>13.583333333333336</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <f t="shared" si="2"/>
         <v>103.58333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="1">
+        <f>A9</f>
+        <v>44145</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>17.916666666666664</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>12.083333333333336</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="2"/>
+        <v>102.08333333333334</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\E-Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF092EF-2258-4428-AB7E-14D5E3E33ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E34B8-6002-4C4E-966F-713B030A6D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Willy" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Startzeit</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Überarbeitung und Erweiterung der Erklärung des Kompartiementenmodells</t>
+  </si>
+  <si>
+    <t>Beispielrechnungen 1 und 2 für CO2 Konzentration</t>
+  </si>
+  <si>
+    <t>Excelsheet Grafischer Verlauf CO2-Konzentration</t>
   </si>
 </sst>
 </file>
@@ -627,7 +633,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,18 +710,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D10" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+        <f t="shared" ref="D3:D12" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F10" si="1">30-D3</f>
+        <f t="shared" ref="F3:F11" si="1">30-D3</f>
         <v>27.416666666666664</v>
       </c>
       <c r="G3" s="11">
-        <f t="shared" ref="G3:G10" si="2">120-D3</f>
+        <f t="shared" ref="G3:G12" si="2">120-D3</f>
         <v>117.41666666666667</v>
       </c>
     </row>
@@ -903,12 +909,56 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>21.416666666666664</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11">
+        <f>30-D11</f>
+        <v>8.5833333333333357</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="2"/>
+        <v>98.583333333333343</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="11">
+        <f>30-D12</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E34B8-6002-4C4E-966F-713B030A6D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA96B39-7145-4DFC-8D0C-E88CE0F7A168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Startzeit</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Excelsheet Grafischer Verlauf CO2-Konzentration</t>
+  </si>
+  <si>
+    <t>Laborhandout Skizze Aufbau + Pakete für Chemsketch</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,18 +713,18 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D12" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+        <f t="shared" ref="D3:D13" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F11" si="1">30-D3</f>
+        <f t="shared" ref="F3:F10" si="1">30-D3</f>
         <v>27.416666666666664</v>
       </c>
       <c r="G3" s="11">
-        <f t="shared" ref="G3:G12" si="2">120-D3</f>
+        <f t="shared" ref="G3:G13" si="2">120-D3</f>
         <v>117.41666666666667</v>
       </c>
     </row>
@@ -936,7 +939,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B12" s="8">
         <v>0.625</v>
@@ -958,6 +961,32 @@
       <c r="G12" s="11">
         <f t="shared" si="2"/>
         <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>23.25</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="11">
+        <f>30-D13</f>
+        <v>6.75</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="2"/>
+        <v>96.75</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA96B39-7145-4DFC-8D0C-E88CE0F7A168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D996E-D64B-4D01-95B3-AF10769CE92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Willy" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Startzeit</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Laborhandout Skizze Aufbau + Pakete für Chemsketch</t>
+  </si>
+  <si>
+    <t>Recherche Apparaturaufbau und Schliffklemmen</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +716,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D13" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+        <f t="shared" ref="D3:D14" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" s="13" t="s">
@@ -989,6 +992,32 @@
         <v>96.75</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>24.416666666666668</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="11">
+        <f>30-D14</f>
+        <v>5.5833333333333321</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" ref="G14" si="3">120-D14</f>
+        <v>95.583333333333329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D996E-D64B-4D01-95B3-AF10769CE92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5AADDD-9792-44CA-BB22-4A2FBEEC12DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Startzeit</t>
   </si>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>Recherche Apparaturaufbau und Schliffklemmen</t>
+  </si>
+  <si>
+    <t>Volumengefäße Recherche, Texte, Abbildungen in Chemsketch zeichnen, 
+Bilderbibliothek in ChemSketch</t>
   </si>
 </sst>
 </file>
@@ -170,9 +174,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -181,9 +182,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,6 +205,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,46 +640,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -683,24 +687,24 @@
       <c r="A2" s="6">
         <v>44113</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <f>HOUR(C2)+MINUTE(C2)/60-HOUR(B2)-MINUTE(B2)/60</f>
         <v>1.5833333333333339</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <f>30-D2</f>
         <v>28.416666666666664</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="9">
         <f>120-D2</f>
         <v>118.41666666666667</v>
       </c>
@@ -709,24 +713,24 @@
       <c r="A3" s="6">
         <v>44113</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D3" s="9">
-        <f t="shared" ref="D3:D14" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D15" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <f t="shared" ref="F3:F10" si="1">30-D3</f>
         <v>27.416666666666664</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <f t="shared" ref="G3:G13" si="2">120-D3</f>
         <v>117.41666666666667</v>
       </c>
@@ -735,24 +739,24 @@
       <c r="A4" s="6">
         <v>44116</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.73958333333333337</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>3.1666666666666661</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <f t="shared" si="1"/>
         <v>26.833333333333336</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <f t="shared" si="2"/>
         <v>116.83333333333333</v>
       </c>
@@ -761,24 +765,24 @@
       <c r="A5" s="6">
         <v>44124</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>4.6666666666666661</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>25.333333333333336</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <f t="shared" si="2"/>
         <v>115.33333333333333</v>
       </c>
@@ -787,235 +791,261 @@
       <c r="A6" s="6">
         <v>44130</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>19.333333333333336</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <f t="shared" si="2"/>
         <v>109.33333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>44137</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.75</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>13.166666666666666</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>16.833333333333336</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <f t="shared" si="2"/>
         <v>106.83333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>44144</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>14.666666666666666</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>15.333333333333334</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f t="shared" si="2"/>
         <v>105.33333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>44145</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.375</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>16.416666666666664</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
         <v>13.583333333333336</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <f t="shared" si="2"/>
         <v>103.58333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="18">
         <f>A9</f>
         <v>44145</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.6875</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.75</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>17.916666666666664</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>12.083333333333336</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>102.08333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="18">
         <v>44151</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.625</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>21.416666666666664</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <f>30-D11</f>
         <v>8.5833333333333357</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>98.583333333333343</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="18">
         <v>44151</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.625</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f>30-D12</f>
         <v>8</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="18">
         <v>44151</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>23.25</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <f>30-D13</f>
         <v>6.75</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>96.75</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="18">
         <v>44152</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>0.39930555555555558</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>24.416666666666668</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <f>30-D14</f>
         <v>5.5833333333333321</v>
       </c>
-      <c r="G14" s="11">
-        <f t="shared" ref="G14" si="3">120-D14</f>
+      <c r="G14" s="9">
+        <f t="shared" ref="G14:G15" si="3">120-D14</f>
         <v>95.583333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>44158</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9">
+        <f>30-D15</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="3"/>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\E-Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5AADDD-9792-44CA-BB22-4A2FBEEC12DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE1627-FF63-487F-8A03-14D99C15E21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Willy" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Startzeit</t>
   </si>
@@ -109,6 +109,9 @@
   <si>
     <t>Volumengefäße Recherche, Texte, Abbildungen in Chemsketch zeichnen, 
 Bilderbibliothek in ChemSketch</t>
+  </si>
+  <si>
+    <t>Recherche Borosilikatglas und optisches Strukturieren des Dokuments</t>
   </si>
 </sst>
 </file>
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +703,7 @@
       <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>30-D2</f>
         <v>28.416666666666664</v>
       </c>
@@ -720,13 +723,13 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D15" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+        <f t="shared" ref="D3:D16" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F10" si="1">30-D3</f>
         <v>27.416666666666664</v>
       </c>
@@ -752,7 +755,7 @@
       <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" si="1"/>
         <v>26.833333333333336</v>
       </c>
@@ -778,7 +781,7 @@
       <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="1"/>
         <v>25.333333333333336</v>
       </c>
@@ -804,7 +807,7 @@
       <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>19.333333333333336</v>
       </c>
@@ -830,7 +833,7 @@
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>16.833333333333336</v>
       </c>
@@ -856,7 +859,7 @@
       <c r="E8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>15.333333333333334</v>
       </c>
@@ -882,7 +885,7 @@
       <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
         <v>13.583333333333336</v>
       </c>
@@ -909,7 +912,7 @@
       <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>12.083333333333336</v>
       </c>
@@ -935,7 +938,7 @@
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f>30-D11</f>
         <v>8.5833333333333357</v>
       </c>
@@ -961,7 +964,7 @@
       <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <f>30-D12</f>
         <v>8</v>
       </c>
@@ -987,7 +990,7 @@
       <c r="E13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f>30-D13</f>
         <v>6.75</v>
       </c>
@@ -1013,12 +1016,12 @@
       <c r="E14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f>30-D14</f>
         <v>5.5833333333333321</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G14:G15" si="3">120-D14</f>
+        <f t="shared" ref="G14:G16" si="3">120-D14</f>
         <v>95.583333333333329</v>
       </c>
     </row>
@@ -1039,13 +1042,39 @@
       <c r="E15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f>30-D15</f>
         <v>3</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="3"/>
         <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>44159</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>27.666666666666668</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8">
+        <f>30-D16</f>
+        <v>2.3333333333333321</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="3"/>
+        <v>92.333333333333329</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDE1627-FF63-487F-8A03-14D99C15E21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB488EC-49A6-4A4F-B7F2-74D8A6334A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Startzeit</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Recherche Borosilikatglas und optisches Strukturieren des Dokuments</t>
+  </si>
+  <si>
+    <t>Merksätze Apparaturaufbau</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Messzylinder und Pipetten</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,6 +220,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +732,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D16" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+        <f t="shared" ref="D3:D18" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -939,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8">
-        <f>30-D11</f>
+        <f t="shared" ref="F11:F18" si="3">30-D11</f>
         <v>8.5833333333333357</v>
       </c>
       <c r="G11" s="9">
@@ -965,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="8">
-        <f>30-D12</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G12" s="9">
@@ -991,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="8">
-        <f>30-D13</f>
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
       <c r="G13" s="9">
@@ -1017,11 +1026,11 @@
         <v>23</v>
       </c>
       <c r="F14" s="8">
-        <f>30-D14</f>
+        <f t="shared" si="3"/>
         <v>5.5833333333333321</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G14:G16" si="3">120-D14</f>
+        <f t="shared" ref="G14:G18" si="4">120-D14</f>
         <v>95.583333333333329</v>
       </c>
     </row>
@@ -1043,11 +1052,11 @@
         <v>24</v>
       </c>
       <c r="F15" s="8">
-        <f>30-D15</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
     </row>
@@ -1069,12 +1078,64 @@
         <v>25</v>
       </c>
       <c r="F16" s="8">
-        <f>30-D16</f>
+        <f t="shared" si="3"/>
         <v>2.3333333333333321</v>
       </c>
       <c r="G16" s="9">
+        <f t="shared" si="4"/>
+        <v>92.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>44159</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>28.333333333333336</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="8">
         <f t="shared" si="3"/>
-        <v>92.333333333333329</v>
+        <v>1.6666666666666643</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="4"/>
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>44161</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>29.416666666666671</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="8">
+        <f>30-D18</f>
+        <v>0.5833333333333286</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="4"/>
+        <v>90.583333333333329</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB488EC-49A6-4A4F-B7F2-74D8A6334A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4B634E-166E-484F-95E7-3672CC94C2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,11 +124,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="#.##\ &quot;h&quot;"/>
     <numFmt numFmtId="166" formatCode="#\ &quot;h&quot;"/>
     <numFmt numFmtId="167" formatCode="#.0\ &quot;h&quot;"/>
+    <numFmt numFmtId="171" formatCode="#.#\ &quot;h&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,11 +170,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,8 +231,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +775,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D18" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+        <f t="shared" ref="D3:D19" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -948,7 +991,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" ref="F11:F18" si="3">30-D11</f>
+        <f t="shared" ref="F11:F17" si="3">30-D11</f>
         <v>8.5833333333333357</v>
       </c>
       <c r="G11" s="9">
@@ -1030,7 +1073,7 @@
         <v>5.5833333333333321</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G14:G18" si="4">120-D14</f>
+        <f t="shared" ref="G14:G20" si="4">120-D14</f>
         <v>95.583333333333329</v>
       </c>
     </row>
@@ -1087,56 +1130,87 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="19">
         <v>44159</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="20">
         <v>0.72222222222222221</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="20">
         <v>0.75</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="21">
         <f t="shared" si="0"/>
         <v>28.333333333333336</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="21">
         <f t="shared" si="3"/>
         <v>1.6666666666666643</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="23">
         <f t="shared" si="4"/>
         <v>91.666666666666657</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="19">
         <v>44161</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="20">
         <v>0.68055555555555547</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="20">
         <v>0.72569444444444453</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="21">
         <f t="shared" si="0"/>
         <v>29.416666666666671</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="21">
         <f>30-D18</f>
         <v>0.5833333333333286</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="23">
         <f t="shared" si="4"/>
         <v>90.583333333333329</v>
       </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>44162</v>
+      </c>
+      <c r="B19" s="26">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D19" s="27">
+        <f t="shared" si="0"/>
+        <v>30.583333333333336</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27">
+        <f>30-D19</f>
+        <v>-0.5833333333333357</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="4"/>
+        <v>89.416666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="30">
+        <f>IF(F19&lt;0,30+F19-D20,30-D20)</f>
+        <v>29.416666666666664</v>
+      </c>
+      <c r="G20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbeitsstunden.xlsx
+++ b/Arbeitsstunden.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4B634E-166E-484F-95E7-3672CC94C2BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F428BAC8-303A-447C-A154-FBF7423733DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Startzeit</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>Ausarbeitung Messzylinder und Pipetten</t>
+  </si>
+  <si>
+    <t>Ausrbeitung Eppndorfpipette</t>
+  </si>
+  <si>
+    <t>Beispielrechnung 3 für Corona Lüftungsaufgaben begonne</t>
+  </si>
+  <si>
+    <t>Beispielrechnung 3 für Corona Lüftungsaufgaben beendet</t>
+  </si>
+  <si>
+    <t>Laborhandout: Trichter beschrieben,  Schläuche beschrieben</t>
+  </si>
+  <si>
+    <t>Laborhandout: Layout Überarbeitung, Recherche und Beschreibung Filter</t>
   </si>
 </sst>
 </file>
@@ -129,7 +144,7 @@
     <numFmt numFmtId="165" formatCode="#.##\ &quot;h&quot;"/>
     <numFmt numFmtId="166" formatCode="#\ &quot;h&quot;"/>
     <numFmt numFmtId="167" formatCode="#.0\ &quot;h&quot;"/>
-    <numFmt numFmtId="171" formatCode="#.#\ &quot;h&quot;"/>
+    <numFmt numFmtId="168" formatCode="#.#\ &quot;h&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -264,8 +279,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,10 +710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B6F7B-F5BE-2C40-940A-929DC888217C}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +790,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D3" s="8">
-        <f t="shared" ref="D3:D19" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
+        <f t="shared" ref="D3:D18" si="0">HOUR(C3)+MINUTE(C3)/60-HOUR(B3)-MINUTE(B3)/60+D2</f>
         <v>2.5833333333333339</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -1073,7 +1088,7 @@
         <v>5.5833333333333321</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" ref="G14:G20" si="4">120-D14</f>
+        <f t="shared" ref="G14:G18" si="4">120-D14</f>
         <v>95.583333333333329</v>
       </c>
     </row>
@@ -1192,25 +1207,124 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="D19" s="27">
-        <f t="shared" si="0"/>
+        <f>HOUR(C19)+MINUTE(C19)/60-HOUR(B19)-MINUTE(B19)/60+D18</f>
         <v>30.583333333333336</v>
       </c>
-      <c r="E19" s="28"/>
+      <c r="E19" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="F19" s="27">
         <f>30-D19</f>
         <v>-0.5833333333333357</v>
       </c>
       <c r="G19" s="29">
-        <f t="shared" si="4"/>
+        <f>120-D19</f>
         <v>89.416666666666657</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>44165</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D20" s="21">
+        <f>HOUR(C20)+MINUTE(C20)/60-HOUR(B20)-MINUTE(B20)/60</f>
+        <v>0.75000000000000067</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="30">
-        <f>IF(F19&lt;0,30+F19-D20,30-D20)</f>
-        <v>29.416666666666664</v>
-      </c>
-      <c r="G20" s="9"/>
+        <f>30+$F$19-D20</f>
+        <v>28.666666666666664</v>
+      </c>
+      <c r="G20" s="9">
+        <f>120-($D$19+D20)</f>
+        <v>88.666666666666657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>44165</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.59375</v>
+      </c>
+      <c r="D21" s="21">
+        <f>HOUR(C21)+MINUTE(C21)/60-HOUR(B21)-MINUTE(B21)/60+D20</f>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="30">
+        <f t="shared" ref="F21:F23" si="5">30+$F$19-D21</f>
+        <v>27.416666666666664</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" ref="G21:G23" si="6">120-($D$19+D21)</f>
+        <v>87.416666666666657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>44165</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" ref="D22:D23" si="7">HOUR(C22)+MINUTE(C22)/60-HOUR(B22)-MINUTE(B22)/60+D21</f>
+        <v>3.0000000000000009</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" si="5"/>
+        <v>26.416666666666664</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="6"/>
+        <v>86.416666666666657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>44173</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" si="5"/>
+        <v>22.416666666666664</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="6"/>
+        <v>82.416666666666657</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
